--- a/DATA/IsoData/ORNLIsoData.xlsx
+++ b/DATA/IsoData/ORNLIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">56a9dc79-e81e-4675-84b0-32016601cf72</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0638339c-feff-48d8-893b-48349bc0de10</t>
   </si>
   <si>
     <t xml:space="preserve">ORNL.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163112Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a874b00e-ad29-4fa0-b834-d429bd51717d</t>
+    <t xml:space="preserve">20210112T152945Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e14296e5-e6a8-4f4f-9c92-4a41660e7800</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ORNL.20190701.1531</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000081043</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164954Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08e824a5-dee9-47cf-9094-42377220fb85</t>
+    <t xml:space="preserve">20210112T153638Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">087fefed-e89a-467e-aceb-8554bde881a9</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ORNL.20190715.1052</t>
@@ -116,7 +122,7 @@
     <t xml:space="preserve">A00000081192</t>
   </si>
   <si>
-    <t xml:space="preserve">dc997f42-b234-4a2a-8802-794d798a9d16</t>
+    <t xml:space="preserve">916d2673-3982-43c3-962d-2d45fbe30c53</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ORNL.20190801.1039</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000081473</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165157Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">738e67a4-6225-4508-ad3a-9351ea2f7a87</t>
+    <t xml:space="preserve">20210112T153714Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87b285da-4b8a-4402-9c96-28f0b41e2a55</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ORNL.20190813.1015</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000081469</t>
   </si>
   <si>
-    <t xml:space="preserve">31ad48c2-9aeb-4839-821e-3e7b2877a58d</t>
+    <t xml:space="preserve">699bf163-8780-46c4-a2a3-415f17bc8b45</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ORNL.20191008.1120</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000081453</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165509Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d88ae7da-4bb2-4ee1-b4cf-950d44f098a8</t>
+    <t xml:space="preserve">20210112T153913Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57c663ca-05af-41d6-b7e7-e5c05645c163</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ORNL.20191021.1129</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000081455</t>
   </si>
   <si>
-    <t xml:space="preserve">65900a2c-dc20-4f8a-a5fe-e36fbc038ac9</t>
+    <t xml:space="preserve">4c70d887-f286-49d1-ada0-31350786ed0b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ORNL.20191104.1402</t>
@@ -182,10 +188,10 @@
     <t xml:space="preserve">A00000081430</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165542Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df395cf3-c811-4e93-85ef-57300bb654ba</t>
+    <t xml:space="preserve">20210112T153658Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f9ffd41-4637-4677-9e07-bedf692e9a07</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ORNL.20191119.1121</t>
@@ -197,7 +203,7 @@
     <t xml:space="preserve">A00000081431</t>
   </si>
   <si>
-    <t xml:space="preserve">eb23ffc8-27b2-450b-b1d7-1559b06c2ace</t>
+    <t xml:space="preserve">da9462e2-f7e4-47e4-86c2-b832bab8bf93</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ORNL.20191205.1307</t>
@@ -209,7 +215,115 @@
     <t xml:space="preserve">A00000141882</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T172948Z</t>
+    <t xml:space="preserve">20210112T150500Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bc1dc768-00cc-4ccc-a3ea-2c5197da5cff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20191219.0836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20191219.0836.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000081439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a02aef2f-4120-441a-abb4-247ccf136334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20191230.1249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20191230.1249.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000081437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1daa7e8b-d750-472e-9248-c9bf0e290836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200114.1254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200114.1254.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154553Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eef6bd35-434a-44ef-a465-5f04bbd7e499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200129.1214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200129.1214.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1dce3f32-8419-4ef4-8813-2e5d90cdf73a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200211.1310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200211.1310.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T155113Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8b660c61-7a15-4004-ad2f-faae52972154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200225.1217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200225.1217.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0cc4139-9dca-4cb2-8b38-5299556adbf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200702.1028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200702.1028.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000143583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T152930Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4511c075-46b1-416b-8ffa-2bc8a672db8e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200730.0818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ORNL.20200730.0818.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000213934</t>
   </si>
 </sst>
 </file>
@@ -547,7 +661,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -601,23 +715,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43579.7</v>
@@ -638,35 +755,38 @@
         <v>0.182</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43643.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43620.6013888889</v>
@@ -687,35 +807,38 @@
         <v>0.143</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43647.8180555556</v>
@@ -736,35 +859,38 @@
         <v>0.04</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43661.6270833333</v>
@@ -785,35 +911,38 @@
         <v>0.124</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43678.6194444444</v>
@@ -834,35 +963,38 @@
         <v>0.305</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43733.6930555556</v>
@@ -883,35 +1015,38 @@
         <v>0.203</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43746.6513888889</v>
@@ -932,35 +1067,38 @@
         <v>0.111</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43759.6506944444</v>
@@ -981,35 +1119,38 @@
         <v>0.127</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43773.8076388889</v>
@@ -1030,35 +1171,38 @@
         <v>0.097</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43788.6902777778</v>
@@ -1079,17 +1223,436 @@
         <v>0.46</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>43804.7819444444</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>43818.5666666667</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-7.357</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-42.843</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>43818.5847222222</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>43829.7423611111</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-12.29</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-92.746</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>43829.7513888889</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>43844.7458333333</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-7.314</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-45.275</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>43844.7527777778</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>43859.7180555556</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-6.407</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-30.565</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>43859.7284722222</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>43872.7569444444</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-8.077</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-49.765</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>43872.7666666667</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>43886.7201388889</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-5.924</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-33.252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>43992.6743055556</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>44014.6027777778</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-3.431</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-18.875</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>44095.75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>44014.6027777778</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>44042.5125</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1.544</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-4.028</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>44095.75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>99</v>
+      </c>
+      <c r="R19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
